--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_10_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_10_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>406718.8852825841</v>
+        <v>336396.3048630666</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11391437.76547035</v>
+        <v>11512539.900382</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10676351.96705205</v>
+        <v>10361893.43952979</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8096213.398164084</v>
+        <v>8239106.155279132</v>
       </c>
     </row>
     <row r="11">
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>57.08569488870593</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368126</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>90.06435309531163</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>116.688911714869</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845744</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>23.41994504831916</v>
+        <v>3.585309553879447</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498675</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3343964518638</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H12" t="n">
         <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>122.6942204073863</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.781160222249216</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>194.6355306165453</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.547702772954</v>
+        <v>312.8927541357336</v>
       </c>
       <c r="H14" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>134.3646350838592</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T15" t="n">
         <v>192.0665623188214</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>79.41653965146595</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T16" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>91.55881951254655</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>212.5820731195833</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>344.1510677373589</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>134.3646350838592</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T18" t="n">
         <v>192.0665623188214</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>103.3387326418233</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S19" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2271541212006</v>
+        <v>184.6637074547103</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>201.7472219657274</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H20" t="n">
-        <v>301.0185525624054</v>
+        <v>126.6663599600766</v>
       </c>
       <c r="I20" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T20" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I21" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>48.89347194164934</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H22" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>142.284675516387</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>69.2952222263505</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>224.4630158025672</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
         <v>206.6581849802338</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I24" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609195</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.3066000448042</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>209.9271762854922</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>110.3838034696612</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2560,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>29.82575910884084</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
-        <v>179.614018183749</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I27" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>120.3332554667404</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2271541212006</v>
+        <v>170.9812334109286</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,10 +2809,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H29" t="n">
-        <v>236.1145908885688</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>199.4355283652147</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I30" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>170.9812334109286</v>
       </c>
       <c r="V31" t="n">
-        <v>50.9807481254283</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>216.9542590800317</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>208.2474868886324</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I33" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.69226524762647</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>194.6624603617375</v>
@@ -3243,19 +3243,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>170.9812334109286</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>162.9299932575045</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H35" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>65.70991267247049</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>343.6990775316563</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I36" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>170.9812334109286</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>111.3057074754896</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>5.575801347800395</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>193.1994278308467</v>
       </c>
       <c r="H38" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I39" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>18.23411901371787</v>
       </c>
       <c r="G40" t="n">
         <v>166.3066000448042</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.32274420367168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>228.361919222826</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>221.250227873644</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I42" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>6.128714607534039</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>92.87962584274369</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>282.3894018905156</v>
+        <v>92.44515534474188</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>64.57009008111716</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H46" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>222.5477057362498</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>388.8228542207812</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>199.4030692042961</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>199.4030692042961</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>21.03371160678506</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>509.4952041123837</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>649.4845259985593</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>738.6222485201482</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>578.2426392372663</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>578.2426392372663</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>578.2426392372663</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>578.2426392372663</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>388.8228542207812</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>388.8228542207812</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>388.8228542207812</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>320.7740599518762</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>161.5366049464207</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>560.6825636487957</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>577.7893150567216</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>427.6726756443859</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>279.7595820619928</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>132.8696345640824</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>132.8696345640824</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>187.8896250884408</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>373.5399563830978</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>559.1902876777548</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>721.928491114305</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>746.7254979846285</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.276945881932</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="C11" t="n">
-        <v>117.6204357321147</v>
+        <v>914.3945931199667</v>
       </c>
       <c r="D11" t="n">
-        <v>117.6204357321147</v>
+        <v>914.3945931199667</v>
       </c>
       <c r="E11" t="n">
-        <v>117.6204357321147</v>
+        <v>528.6063405217224</v>
       </c>
       <c r="F11" t="n">
         <v>117.6204357321147</v>
@@ -5041,25 +5041,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M11" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N11" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O11" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q11" t="n">
         <v>2542.25058172385</v>
@@ -5071,7 +5071,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T11" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U11" t="n">
         <v>1975.31341879663</v>
@@ -5083,10 +5083,10 @@
         <v>1291.481876182945</v>
       </c>
       <c r="X11" t="n">
-        <v>918.0161179218655</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y11" t="n">
-        <v>527.8767859460538</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6792471488051</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G12" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I12" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J12" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K12" t="n">
-        <v>684.9695361605189</v>
+        <v>423.1489515180659</v>
       </c>
       <c r="L12" t="n">
-        <v>1092.885047004312</v>
+        <v>717.8525085495376</v>
       </c>
       <c r="M12" t="n">
-        <v>1456.147065963532</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.432194560477</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O12" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P12" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q12" t="n">
         <v>2538.001278676482</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C13" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D13" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E13" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F13" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G13" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H13" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I13" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J13" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K13" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L13" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M13" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N13" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O13" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q13" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R13" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S13" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T13" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U13" t="n">
-        <v>825.137147448514</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V13" t="n">
-        <v>570.4526592426272</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W13" t="n">
-        <v>281.0354892056666</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X13" t="n">
-        <v>157.1019332386097</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="Y13" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2172.199996424344</v>
+        <v>1588.713578732508</v>
       </c>
       <c r="C14" t="n">
-        <v>1803.237479483932</v>
+        <v>1588.713578732508</v>
       </c>
       <c r="D14" t="n">
-        <v>1444.971780877182</v>
+        <v>1230.447880125758</v>
       </c>
       <c r="E14" t="n">
-        <v>1248.370234799863</v>
+        <v>844.6596275275137</v>
       </c>
       <c r="F14" t="n">
-        <v>837.3843300102556</v>
+        <v>433.6737227379062</v>
       </c>
       <c r="G14" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H14" t="n">
         <v>117.6204357321147</v>
@@ -5278,16 +5278,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K14" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M14" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N14" t="n">
         <v>1656.671415230817</v>
@@ -5305,25 +5305,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S14" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T14" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U14" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V14" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W14" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X14" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y14" t="n">
-        <v>2172.199996424344</v>
+        <v>1975.31341879663</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E15" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G15" t="n">
         <v>165.443278618252</v>
@@ -5357,28 +5357,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J15" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K15" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L15" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M15" t="n">
-        <v>956.284402521753</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N15" t="n">
-        <v>1590.463386300792</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O15" t="n">
-        <v>1967.526114878149</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P15" t="n">
-        <v>2214.708848710446</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R15" t="n">
         <v>2562.339328400155</v>
@@ -5399,7 +5399,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y15" t="n">
         <v>1099.519478116707</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.24678656800311</v>
+        <v>834.938065318854</v>
       </c>
       <c r="C16" t="n">
-        <v>51.24678656800311</v>
+        <v>666.0018823909471</v>
       </c>
       <c r="D16" t="n">
-        <v>51.24678656800311</v>
+        <v>515.8852429786114</v>
       </c>
       <c r="E16" t="n">
-        <v>51.24678656800311</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F16" t="n">
-        <v>51.24678656800311</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G16" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H16" t="n">
         <v>51.24678656800311</v>
@@ -5436,16 +5436,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M16" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N16" t="n">
         <v>1123.088724245823</v>
@@ -5463,25 +5463,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S16" t="n">
-        <v>1556.227393153825</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T16" t="n">
-        <v>1333.24891234856</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U16" t="n">
-        <v>1044.130574852398</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V16" t="n">
-        <v>789.4460866465112</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="W16" t="n">
-        <v>500.0289166095505</v>
+        <v>927.4217213921333</v>
       </c>
       <c r="X16" t="n">
-        <v>272.0393657115332</v>
+        <v>927.4217213921333</v>
       </c>
       <c r="Y16" t="n">
-        <v>51.24678656800311</v>
+        <v>834.938065318854</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1313.273607737845</v>
+        <v>265.976153355461</v>
       </c>
       <c r="C17" t="n">
-        <v>944.3110907974335</v>
+        <v>265.976153355461</v>
       </c>
       <c r="D17" t="n">
-        <v>944.3110907974335</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E17" t="n">
-        <v>944.3110907974335</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F17" t="n">
-        <v>533.3251860078259</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G17" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H17" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I17" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L17" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M17" t="n">
         <v>1220.470313923562</v>
@@ -5542,25 +5542,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S17" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T17" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U17" t="n">
-        <v>2437.640120926626</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V17" t="n">
-        <v>2437.640120926626</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W17" t="n">
-        <v>2090.012779777779</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="X17" t="n">
-        <v>2090.012779777779</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y17" t="n">
-        <v>1699.873447801967</v>
+        <v>652.5759934195828</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E18" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G18" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H18" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I18" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J18" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K18" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L18" t="n">
-        <v>717.8525085495378</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M18" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N18" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O18" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P18" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q18" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R18" t="n">
         <v>2562.339328400155</v>
@@ -5627,7 +5627,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V18" t="n">
         <v>1769.368633815395</v>
@@ -5636,7 +5636,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y18" t="n">
         <v>1099.519478116707</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>155.629344792067</v>
+        <v>834.938065318854</v>
       </c>
       <c r="C19" t="n">
-        <v>155.629344792067</v>
+        <v>666.0018823909471</v>
       </c>
       <c r="D19" t="n">
-        <v>155.629344792067</v>
+        <v>515.8852429786114</v>
       </c>
       <c r="E19" t="n">
-        <v>155.629344792067</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F19" t="n">
-        <v>155.629344792067</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G19" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H19" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I19" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J19" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K19" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L19" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M19" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N19" t="n">
         <v>1123.088724245823</v>
@@ -5697,28 +5697,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R19" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S19" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T19" t="n">
-        <v>1216.838891429094</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U19" t="n">
-        <v>927.7205539329318</v>
+        <v>1124.355235355815</v>
       </c>
       <c r="V19" t="n">
-        <v>673.036065727045</v>
+        <v>1124.355235355815</v>
       </c>
       <c r="W19" t="n">
-        <v>383.6188956900843</v>
+        <v>834.938065318854</v>
       </c>
       <c r="X19" t="n">
-        <v>155.629344792067</v>
+        <v>834.938065318854</v>
       </c>
       <c r="Y19" t="n">
-        <v>155.629344792067</v>
+        <v>834.938065318854</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1452.155307492517</v>
+        <v>1733.111475321975</v>
       </c>
       <c r="C20" t="n">
-        <v>1452.155307492517</v>
+        <v>1364.148958381564</v>
       </c>
       <c r="D20" t="n">
-        <v>1452.155307492517</v>
+        <v>1005.883259774813</v>
       </c>
       <c r="E20" t="n">
-        <v>1248.370234799863</v>
+        <v>1005.883259774813</v>
       </c>
       <c r="F20" t="n">
-        <v>837.3843300102556</v>
+        <v>594.8973549852058</v>
       </c>
       <c r="G20" t="n">
-        <v>421.6795797345444</v>
+        <v>179.1926047094946</v>
       </c>
       <c r="H20" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I20" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J20" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K20" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L20" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M20" t="n">
         <v>1220.470313923562</v>
@@ -5773,31 +5773,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q20" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R20" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S20" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T20" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U20" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V20" t="n">
-        <v>2228.894479532451</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W20" t="n">
-        <v>2228.894479532451</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X20" t="n">
-        <v>2228.894479532451</v>
+        <v>1733.111475321975</v>
       </c>
       <c r="Y20" t="n">
-        <v>1838.755147556639</v>
+        <v>1733.111475321975</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6792471488051</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4432786182523</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H21" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I21" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J21" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K21" t="n">
-        <v>590.20497511435</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L21" t="n">
-        <v>884.9085321458217</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M21" t="n">
-        <v>1248.170551105042</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N21" t="n">
         <v>1635.455679701987</v>
@@ -5852,10 +5852,10 @@
         <v>2214.708848710446</v>
       </c>
       <c r="Q21" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R21" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S21" t="n">
         <v>2426.617474780096</v>
@@ -5870,10 +5870,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W21" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y21" t="n">
         <v>1099.519478116707</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>714.3660817020698</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C22" t="n">
-        <v>714.3660817020698</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D22" t="n">
-        <v>564.249442289734</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E22" t="n">
-        <v>514.8620968941286</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F22" t="n">
-        <v>367.9721493962183</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G22" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H22" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I22" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J22" t="n">
         <v>76.71595955312199</v>
@@ -5937,25 +5937,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S22" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T22" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U22" t="n">
-        <v>1150.699034738196</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V22" t="n">
-        <v>896.0145465323095</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W22" t="n">
-        <v>896.0145465323095</v>
+        <v>1057.910612541375</v>
       </c>
       <c r="X22" t="n">
-        <v>896.0145465323095</v>
+        <v>829.9210616433572</v>
       </c>
       <c r="Y22" t="n">
-        <v>896.0145465323095</v>
+        <v>686.1991671823603</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1378.810406950777</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C23" t="n">
-        <v>1378.810406950777</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="D23" t="n">
-        <v>1378.810406950777</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="E23" t="n">
-        <v>993.0221543525324</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F23" t="n">
-        <v>582.0362495629249</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G23" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H23" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I23" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J23" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K23" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L23" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M23" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N23" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O23" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P23" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q23" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R23" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S23" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T23" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U23" t="n">
-        <v>2100.012626270159</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V23" t="n">
-        <v>1768.949738926588</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W23" t="n">
-        <v>1768.949738926588</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X23" t="n">
-        <v>1768.949738926588</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y23" t="n">
-        <v>1378.810406950777</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C24" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D24" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E24" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F24" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G24" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I24" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J24" t="n">
-        <v>143.6627691908467</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K24" t="n">
-        <v>590.2049751143495</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L24" t="n">
-        <v>884.9085321458213</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M24" t="n">
-        <v>1248.170551105041</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N24" t="n">
         <v>1635.455679701987</v>
@@ -6101,7 +6101,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U24" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V24" t="n">
         <v>1769.368633815395</v>
@@ -6110,7 +6110,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X24" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y24" t="n">
         <v>1099.519478116707</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>833.0891146802707</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C25" t="n">
-        <v>664.1529317523638</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D25" t="n">
-        <v>514.036292340028</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E25" t="n">
-        <v>366.1231987576349</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F25" t="n">
         <v>219.2332512597245</v>
       </c>
       <c r="G25" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H25" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I25" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J25" t="n">
         <v>76.71595955312198</v>
@@ -6162,10 +6162,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O25" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P25" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q25" t="n">
         <v>1636.446120074497</v>
@@ -6177,22 +6177,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T25" t="n">
-        <v>1636.446120074497</v>
+        <v>1424.398467260869</v>
       </c>
       <c r="U25" t="n">
-        <v>1636.446120074497</v>
+        <v>1424.398467260869</v>
       </c>
       <c r="V25" t="n">
-        <v>1636.446120074497</v>
+        <v>1424.398467260869</v>
       </c>
       <c r="W25" t="n">
-        <v>1347.028950037537</v>
+        <v>1134.981297223908</v>
       </c>
       <c r="X25" t="n">
-        <v>1235.53015865404</v>
+        <v>906.9917463258904</v>
       </c>
       <c r="Y25" t="n">
-        <v>1014.73757951051</v>
+        <v>686.1991671823603</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1059.365742829028</v>
+        <v>867.5113594131251</v>
       </c>
       <c r="C26" t="n">
-        <v>1059.365742829028</v>
+        <v>867.5113594131251</v>
       </c>
       <c r="D26" t="n">
-        <v>1059.365742829028</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="E26" t="n">
-        <v>1059.365742829028</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="F26" t="n">
-        <v>648.3798380394203</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G26" t="n">
-        <v>232.6750877637091</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H26" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I26" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J26" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K26" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M26" t="n">
         <v>1220.470313923562</v>
@@ -6253,25 +6253,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S26" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T26" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U26" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V26" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W26" t="n">
-        <v>2209.570673130041</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X26" t="n">
-        <v>1836.104914868961</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y26" t="n">
-        <v>1445.96558289315</v>
+        <v>1254.111199477247</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D27" t="n">
         <v>607.9167021542605</v>
@@ -6293,37 +6293,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F27" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G27" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I27" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J27" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K27" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L27" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M27" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N27" t="n">
-        <v>1590.463386300792</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O27" t="n">
-        <v>1922.533821476953</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P27" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q27" t="n">
         <v>2562.339328400155</v>
@@ -6344,7 +6344,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W27" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X27" t="n">
         <v>1307.279776881661</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.7955294637004</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C28" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D28" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E28" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F28" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G28" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H28" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I28" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J28" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K28" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L28" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M28" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N28" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O28" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P28" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q28" t="n">
         <v>1636.446120074497</v>
@@ -6411,25 +6411,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S28" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T28" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U28" t="n">
-        <v>1347.327782578335</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V28" t="n">
-        <v>1092.643294372448</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W28" t="n">
-        <v>803.2261243354876</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X28" t="n">
-        <v>575.2365734374703</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y28" t="n">
-        <v>354.4439942939401</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1449.505074804839</v>
+        <v>1288.075955546482</v>
       </c>
       <c r="C29" t="n">
-        <v>1449.505074804839</v>
+        <v>919.1134386060701</v>
       </c>
       <c r="D29" t="n">
-        <v>1091.239376198089</v>
+        <v>919.1134386060701</v>
       </c>
       <c r="E29" t="n">
-        <v>705.4511235998443</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="F29" t="n">
-        <v>705.4511235998443</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G29" t="n">
-        <v>289.7463733241332</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H29" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I29" t="n">
         <v>51.2467865680031</v>
@@ -6466,10 +6466,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M29" t="n">
         <v>1220.470313923562</v>
@@ -6490,25 +6490,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S29" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T29" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U29" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V29" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W29" t="n">
-        <v>2209.570673130041</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X29" t="n">
-        <v>1836.104914868961</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="Y29" t="n">
-        <v>1836.104914868961</v>
+        <v>1674.675795610603</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E30" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F30" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G30" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I30" t="n">
         <v>51.2467865680031</v>
@@ -6545,7 +6545,7 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K30" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L30" t="n">
         <v>909.2465818694943</v>
@@ -6575,7 +6575,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U30" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V30" t="n">
         <v>1769.368633815395</v>
@@ -6584,7 +6584,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X30" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y30" t="n">
         <v>1099.519478116707</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>665.1026499885492</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C31" t="n">
-        <v>496.1664670606423</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D31" t="n">
-        <v>346.0498276483066</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E31" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F31" t="n">
         <v>51.2467865680031</v>
@@ -6621,7 +6621,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J31" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K31" t="n">
         <v>248.4064713020475</v>
@@ -6636,10 +6636,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O31" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P31" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q31" t="n">
         <v>1636.446120074497</v>
@@ -6648,25 +6648,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S31" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T31" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U31" t="n">
-        <v>1636.446120074497</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V31" t="n">
-        <v>1584.950414897297</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W31" t="n">
-        <v>1295.533244860336</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X31" t="n">
-        <v>1067.543693962319</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y31" t="n">
-        <v>846.7511148187889</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1785.600156360221</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="C32" t="n">
-        <v>1416.63763941981</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D32" t="n">
-        <v>1058.371940813059</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E32" t="n">
-        <v>672.5836882148151</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F32" t="n">
-        <v>261.5977834252075</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G32" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H32" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I32" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J32" t="n">
         <v>187.528182236282</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L32" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M32" t="n">
         <v>1220.470313923562</v>
@@ -6736,16 +6736,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V32" t="n">
-        <v>2562.339328400155</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W32" t="n">
-        <v>2562.339328400155</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X32" t="n">
-        <v>2562.339328400155</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="Y32" t="n">
-        <v>2172.199996424343</v>
+        <v>1841.137109080773</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E33" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F33" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G33" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I33" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J33" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K33" t="n">
-        <v>483.0441129489466</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L33" t="n">
-        <v>1117.223096727985</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M33" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N33" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O33" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P33" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q33" t="n">
         <v>2562.339328400155</v>
@@ -6812,7 +6812,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U33" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V33" t="n">
         <v>1769.368633815395</v>
@@ -6821,7 +6821,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X33" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y33" t="n">
         <v>1099.519478116707</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1858.500228440094</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C34" t="n">
-        <v>1689.564045512187</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D34" t="n">
-        <v>1539.447406099852</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E34" t="n">
-        <v>1391.534312517459</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F34" t="n">
-        <v>1391.534312517459</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G34" t="n">
-        <v>1223.547847825737</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H34" t="n">
-        <v>1074.808949689243</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I34" t="n">
-        <v>977.139994893661</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J34" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K34" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L34" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M34" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N34" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O34" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P34" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q34" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R34" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S34" t="n">
-        <v>2263.127174075598</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T34" t="n">
-        <v>2040.148693270334</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U34" t="n">
-        <v>2040.148693270334</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V34" t="n">
-        <v>2040.148693270334</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W34" t="n">
-        <v>2040.148693270334</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X34" t="n">
-        <v>2040.148693270334</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y34" t="n">
-        <v>2040.148693270334</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1798.734238163263</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="C35" t="n">
-        <v>1798.734238163263</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="D35" t="n">
-        <v>1634.158487398107</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E35" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F35" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G35" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H35" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I35" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J35" t="n">
         <v>187.528182236282</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L35" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M35" t="n">
         <v>1220.470313923562</v>
@@ -6964,25 +6964,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S35" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T35" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U35" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V35" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W35" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X35" t="n">
-        <v>2188.873570139075</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y35" t="n">
-        <v>1798.734238163263</v>
+        <v>944.3110907974335</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E36" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G36" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I36" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J36" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K36" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L36" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M36" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N36" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O36" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P36" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q36" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R36" t="n">
         <v>2562.339328400155</v>
@@ -7049,7 +7049,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V36" t="n">
         <v>1769.368633815395</v>
@@ -7058,7 +7058,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y36" t="n">
         <v>1099.519478116707</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1087.683159487371</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C37" t="n">
-        <v>918.7469765594642</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D37" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E37" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F37" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G37" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H37" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I37" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J37" t="n">
         <v>76.71595955312198</v>
@@ -7110,10 +7110,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O37" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P37" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q37" t="n">
         <v>1636.446120074497</v>
@@ -7122,25 +7122,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T37" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U37" t="n">
-        <v>1636.446120074497</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V37" t="n">
-        <v>1381.76163186861</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W37" t="n">
-        <v>1381.76163186861</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X37" t="n">
-        <v>1381.76163186861</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y37" t="n">
-        <v>1269.331624317611</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1224.085859695932</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C38" t="n">
-        <v>1224.085859695932</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D38" t="n">
-        <v>1218.453737122396</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="E38" t="n">
-        <v>832.6654845241519</v>
+        <v>657.3836285604862</v>
       </c>
       <c r="F38" t="n">
-        <v>421.6795797345444</v>
+        <v>246.3977237708786</v>
       </c>
       <c r="G38" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H38" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I38" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J38" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L38" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M38" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N38" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O38" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P38" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q38" t="n">
         <v>2542.25058172385</v>
@@ -7204,22 +7204,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T38" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U38" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V38" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W38" t="n">
-        <v>2000.825031735865</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X38" t="n">
-        <v>2000.825031735865</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y38" t="n">
-        <v>1610.685699760054</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G39" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I39" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J39" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K39" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L39" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M39" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N39" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O39" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P39" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q39" t="n">
         <v>2562.339328400155</v>
@@ -7286,7 +7286,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V39" t="n">
         <v>1769.368633815395</v>
@@ -7295,7 +7295,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y39" t="n">
         <v>1099.519478116707</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>938.9442613508774</v>
+        <v>704.6174692164187</v>
       </c>
       <c r="C40" t="n">
-        <v>770.0080784229705</v>
+        <v>535.6812862885118</v>
       </c>
       <c r="D40" t="n">
-        <v>619.8914390106347</v>
+        <v>385.5646468761761</v>
       </c>
       <c r="E40" t="n">
-        <v>471.9783454282416</v>
+        <v>237.651553293783</v>
       </c>
       <c r="F40" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G40" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H40" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I40" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J40" t="n">
         <v>76.71595955312198</v>
@@ -7347,37 +7347,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O40" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P40" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q40" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R40" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S40" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T40" t="n">
-        <v>1439.817372234358</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U40" t="n">
-        <v>1439.817372234358</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V40" t="n">
-        <v>1439.817372234358</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W40" t="n">
-        <v>1439.817372234358</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.827821336341</v>
+        <v>886.2659340466585</v>
       </c>
       <c r="Y40" t="n">
-        <v>1120.592726181117</v>
+        <v>886.2659340466585</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1575.249159503017</v>
+        <v>1078.689549231437</v>
       </c>
       <c r="C41" t="n">
-        <v>1206.286642562605</v>
+        <v>1078.689549231437</v>
       </c>
       <c r="D41" t="n">
-        <v>848.0209439558548</v>
+        <v>1078.689549231437</v>
       </c>
       <c r="E41" t="n">
-        <v>462.2326913576106</v>
+        <v>692.9012966331925</v>
       </c>
       <c r="F41" t="n">
-        <v>51.2467865680031</v>
+        <v>281.9153918435849</v>
       </c>
       <c r="G41" t="n">
         <v>51.2467865680031</v>
@@ -7411,10 +7411,10 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J41" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L41" t="n">
         <v>795.7553530872915</v>
@@ -7438,25 +7438,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S41" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T41" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U41" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V41" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W41" t="n">
-        <v>2338.854249739908</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X41" t="n">
-        <v>1965.388491478829</v>
+        <v>1855.42872127137</v>
       </c>
       <c r="Y41" t="n">
-        <v>1575.249159503017</v>
+        <v>1465.289389295559</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I42" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J42" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K42" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L42" t="n">
-        <v>932.4978103100997</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M42" t="n">
-        <v>1295.75982926932</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N42" t="n">
-        <v>1683.044957866265</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O42" t="n">
-        <v>2015.115393042426</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P42" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q42" t="n">
         <v>2562.339328400155</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>461.9138669598624</v>
+        <v>354.4439942939401</v>
       </c>
       <c r="C43" t="n">
-        <v>292.9776840319555</v>
+        <v>354.4439942939401</v>
       </c>
       <c r="D43" t="n">
-        <v>292.9776840319555</v>
+        <v>204.3273548816044</v>
       </c>
       <c r="E43" t="n">
-        <v>145.0645904495624</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F43" t="n">
-        <v>145.0645904495624</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G43" t="n">
-        <v>145.0645904495624</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H43" t="n">
-        <v>145.0645904495624</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I43" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J43" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K43" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L43" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M43" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N43" t="n">
         <v>1123.088724245823</v>
@@ -7602,19 +7602,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U43" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V43" t="n">
-        <v>1381.76163186861</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W43" t="n">
-        <v>1092.34446183165</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X43" t="n">
-        <v>864.3549109336323</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="Y43" t="n">
-        <v>643.5623317901021</v>
+        <v>354.4439942939401</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1164.263254713409</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C44" t="n">
-        <v>795.3007377729978</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D44" t="n">
-        <v>437.0350391662473</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E44" t="n">
-        <v>51.2467865680031</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F44" t="n">
-        <v>51.2467865680031</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G44" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H44" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I44" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L44" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872921</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N44" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O44" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P44" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R44" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S44" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T44" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U44" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="V44" t="n">
-        <v>2277.097508308725</v>
+        <v>2006.633681477492</v>
       </c>
       <c r="W44" t="n">
-        <v>1924.328853038611</v>
+        <v>1653.865026207378</v>
       </c>
       <c r="X44" t="n">
-        <v>1550.863094777531</v>
+        <v>1653.865026207378</v>
       </c>
       <c r="Y44" t="n">
-        <v>1550.863094777531</v>
+        <v>1263.725694231566</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G45" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I45" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J45" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K45" t="n">
-        <v>614.5430248380226</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L45" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M45" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N45" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O45" t="n">
-        <v>1991.864164601821</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P45" t="n">
         <v>2239.046898434118</v>
@@ -7760,7 +7760,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V45" t="n">
         <v>1769.368633815395</v>
@@ -7769,7 +7769,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y45" t="n">
         <v>1099.519478116707</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1931.908733528368</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C46" t="n">
-        <v>1762.972550600461</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D46" t="n">
-        <v>1612.855911188126</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E46" t="n">
-        <v>1464.942817605733</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F46" t="n">
-        <v>1399.720504392483</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G46" t="n">
-        <v>1231.734039700762</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H46" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I46" t="n">
-        <v>977.139994893661</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J46" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K46" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L46" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M46" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N46" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O46" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P46" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q46" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R46" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S46" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T46" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U46" t="n">
-        <v>2562.339328400155</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V46" t="n">
-        <v>2562.339328400155</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W46" t="n">
-        <v>2562.339328400155</v>
+        <v>867.8476320126</v>
       </c>
       <c r="X46" t="n">
-        <v>2334.349777502138</v>
+        <v>867.8476320126</v>
       </c>
       <c r="Y46" t="n">
-        <v>2113.557198358608</v>
+        <v>867.8476320126</v>
       </c>
     </row>
   </sheetData>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280013</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>86.72591490550931</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>70.31665934305323</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729366</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>53.44993733213093</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>80.46778072209531</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>109.0872921559756</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913169</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K9" t="n">
-        <v>47.25897875440141</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>26.85597970277001</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>68.37594193669796</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>74.37427626277801</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L10" t="n">
-        <v>64.96559098237566</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>65.20591187910269</v>
+        <v>171.4142040457086</v>
       </c>
       <c r="N10" t="n">
-        <v>55.71856618250388</v>
+        <v>163.8604018711119</v>
       </c>
       <c r="O10" t="n">
-        <v>71.9833858147683</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615827</v>
+        <v>46.56605103777649</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>114.3555089013348</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>168.7434581780652</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>45.44676101130841</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>168.7434581780647</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>168.7434581780645</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>168.7434581780651</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>30.36925650589434</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>168.7434581780644</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>280.1079373569283</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>193.3273467878349</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>60.5001630614955</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L33" t="n">
-        <v>342.9044714621885</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>30.36925650589467</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>265.0304328515146</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L42" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>186.5911984019046</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>193.3273467878343</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046873</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>324.8446751835559</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>414.2543098065221</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>328.737591844935</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>170.0563803341062</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>84.0108208899931</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.1290231762283</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.5063572696783</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2617786911475</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510928</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23102,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>82.64414589300411</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7825588849655</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>106.817768233445</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>70.08293774516886</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>65.32921403493339</v>
+        <v>26.91122581714232</v>
       </c>
       <c r="S9" t="n">
-        <v>161.2636171197674</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>197.9036731785617</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945994</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23181,28 +23181,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5206907817879</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>158.0458795257661</v>
+        <v>36.74475911695052</v>
       </c>
       <c r="I10" t="n">
-        <v>141.3076148215571</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604452</v>
+        <v>23.43375830553079</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.7817879815572</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>156.1475068297698</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>215.8207507508087</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>225.9361746006879</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>341.8529467226884</v>
+        <v>361.6875822171281</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.547702772954</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23433,10 +23433,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>103.0154349816509</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>216.8034931298456</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>187.2948394557165</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>98.6549486372204</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>104.7965952039006</v>
@@ -23703,25 +23703,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S16" t="n">
-        <v>115.2459207102715</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>127.0258338395482</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>142.1009685010997</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H17" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T17" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>5.089900980054153</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>62.96786740298093</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>104.7965952039006</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>101.5634466664903</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>180.1831481065343</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>174.3521926023288</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U20" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>97.54049070491983</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I22" t="n">
         <v>104.7965952039006</v>
@@ -24177,7 +24177,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T22" t="n">
         <v>220.7486959972119</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>76.29997783570781</v>
       </c>
     </row>
     <row r="23">
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>285.3878193943324</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>187.0846869703868</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
         <v>65.70991267247049</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I25" t="n">
         <v>104.7965952039006</v>
@@ -24417,7 +24417,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7486959972119</v>
+        <v>10.82151971171976</v>
       </c>
       <c r="U25" t="n">
         <v>286.2271541212006</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>115.325851919376</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24448,22 +24448,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>324.8572825118421</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>121.4045343786564</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>46.91356563188748</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,7 +24618,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I28" t="n">
         <v>104.7965952039006</v>
@@ -24651,13 +24651,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>115.245920710272</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>64.90396167383662</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.045250128462</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>186.8024102908389</v>
       </c>
     </row>
     <row r="30">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I31" t="n">
         <v>104.7965952039006</v>
@@ -24888,16 +24888,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S31" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2271541212006</v>
+        <v>115.245920710272</v>
       </c>
       <c r="V31" t="n">
-        <v>201.1568951983997</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>165.7795825834489</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>203.3002158843216</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>301.0185525624054</v>
@@ -24976,7 +24976,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I34" t="n">
-        <v>8.104329956274114</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2271541212006</v>
+        <v>115.245920710272</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,10 +25159,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>191.7530483631785</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>42.53886112439733</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2271541212006</v>
+        <v>115.245920710272</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>107.2789458766052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>349.1072402728826</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.547702772954</v>
+        <v>218.3482749421073</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
         <v>251.045250128462</v>
@@ -25453,10 +25453,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>127.1869290092134</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2271541212006</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>128.2619091484231</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.547702772954</v>
+        <v>183.185783550128</v>
       </c>
       <c r="H41" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I41" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.045250128462</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>127.990740843769</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>140.3052480390351</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.3066000448042</v>
@@ -25806,7 +25806,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I43" t="n">
-        <v>11.91696936115689</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>45.36285657961935</v>
+        <v>235.307103125393</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>80.85095794181409</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>63.97529260034122</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>330600.7597974779</v>
+        <v>485153.5658931131</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611121</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611117</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611121</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822866.1879611119</v>
+        <v>822866.1879611121</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822866.1879611117</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822866.1879611117</v>
+        <v>822866.187961112</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822866.1879611117</v>
+        <v>822866.187961112</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611121</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
   </sheetData>
@@ -26319,28 +26319,28 @@
         <v>99166.69657404804</v>
       </c>
       <c r="D2" t="n">
-        <v>99917.42429591442</v>
+        <v>153375.3739746994</v>
       </c>
       <c r="E2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201623</v>
       </c>
       <c r="F2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201623</v>
       </c>
       <c r="G2" t="n">
         <v>260075.8859201622</v>
       </c>
       <c r="H2" t="n">
+        <v>260075.8859201621</v>
+      </c>
+      <c r="I2" t="n">
         <v>260075.8859201622</v>
-      </c>
-      <c r="I2" t="n">
-        <v>260075.8859201621</v>
       </c>
       <c r="J2" t="n">
         <v>260075.8859201622</v>
       </c>
       <c r="K2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201621</v>
       </c>
       <c r="L2" t="n">
         <v>260075.8859201622</v>
@@ -26349,13 +26349,13 @@
         <v>260075.8859201622</v>
       </c>
       <c r="N2" t="n">
+        <v>260075.8859201623</v>
+      </c>
+      <c r="O2" t="n">
+        <v>260075.8859201621</v>
+      </c>
+      <c r="P2" t="n">
         <v>260075.8859201622</v>
-      </c>
-      <c r="O2" t="n">
-        <v>260075.8859201622</v>
-      </c>
-      <c r="P2" t="n">
-        <v>260075.8859201623</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22280.77012981693</v>
+        <v>326899.4975468233</v>
       </c>
       <c r="E3" t="n">
-        <v>732170.470382964</v>
+        <v>445061.6638164765</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.695895773285884e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47461.03838151118</v>
       </c>
       <c r="M3" t="n">
-        <v>159636.3024986581</v>
+        <v>112904.1760744624</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,31 +26423,31 @@
         <v>22471.52375672497</v>
       </c>
       <c r="D4" t="n">
-        <v>19093.49581609735</v>
+        <v>7145.895421973703</v>
       </c>
       <c r="E4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.18241499342</v>
       </c>
       <c r="F4" t="n">
         <v>12563.18241499341</v>
       </c>
       <c r="G4" t="n">
+        <v>12563.1824149934</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12563.18241499342</v>
+      </c>
+      <c r="I4" t="n">
         <v>12563.18241499341</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12563.18241499341</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12563.1824149934</v>
       </c>
       <c r="J4" t="n">
         <v>12563.18241499341</v>
       </c>
       <c r="K4" t="n">
-        <v>12563.1824149934</v>
+        <v>12563.18241499341</v>
       </c>
       <c r="L4" t="n">
-        <v>12563.1824149934</v>
+        <v>12563.18241499341</v>
       </c>
       <c r="M4" t="n">
         <v>12563.18241499341</v>
@@ -26456,7 +26456,7 @@
         <v>12563.18241499341</v>
       </c>
       <c r="O4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="P4" t="n">
         <v>12563.1824149934</v>
@@ -26475,22 +26475,22 @@
         <v>38745.80483114667</v>
       </c>
       <c r="D5" t="n">
-        <v>39312.96135688073</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
+        <v>59310.17243984471</v>
+      </c>
+      <c r="F5" t="n">
         <v>59310.17243984472</v>
-      </c>
-      <c r="F5" t="n">
-        <v>59310.17243984471</v>
       </c>
       <c r="G5" t="n">
         <v>59310.17243984471</v>
       </c>
       <c r="H5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="I5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="J5" t="n">
         <v>59310.17243984471</v>
@@ -26511,7 +26511,7 @@
         <v>59310.17243984471</v>
       </c>
       <c r="P5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-188287.7288925273</v>
+        <v>-202980.4380465433</v>
       </c>
       <c r="C6" t="n">
-        <v>37949.3679861764</v>
+        <v>23256.65883216037</v>
       </c>
       <c r="D6" t="n">
-        <v>19230.19699311941</v>
+        <v>-249159.7828302772</v>
       </c>
       <c r="E6" t="n">
-        <v>-543967.9393176399</v>
+        <v>-262086.595473044</v>
       </c>
       <c r="F6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434322</v>
       </c>
       <c r="G6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="H6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="I6" t="n">
-        <v>188202.531065324</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="J6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="K6" t="n">
-        <v>188202.531065324</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="L6" t="n">
-        <v>188202.531065324</v>
+        <v>135514.0299619213</v>
       </c>
       <c r="M6" t="n">
-        <v>28566.22856666597</v>
+        <v>70070.89226897</v>
       </c>
       <c r="N6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434325</v>
       </c>
       <c r="O6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434322</v>
       </c>
       <c r="P6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434325</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>260.7963925174648</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="E3" t="n">
+        <v>934.064892117539</v>
+      </c>
+      <c r="F3" t="n">
         <v>934.0648921175393</v>
-      </c>
-      <c r="F3" t="n">
-        <v>934.0648921175392</v>
       </c>
       <c r="G3" t="n">
         <v>934.0648921175392</v>
@@ -26758,28 +26758,28 @@
         <v>934.0648921175392</v>
       </c>
       <c r="I3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="J3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="K3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="L3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="M3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="N3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="O3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="P3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="E4" t="n">
         <v>640.5848321000389</v>
@@ -26804,34 +26804,34 @@
         <v>640.5848321000389</v>
       </c>
       <c r="G4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="H4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="I4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="J4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="L4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="P4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
     </row>
   </sheetData>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26.01635439147063</v>
+        <v>313.6899027869107</v>
       </c>
       <c r="E3" t="n">
-        <v>673.2684996000745</v>
+        <v>385.5949512046341</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000389</v>
+        <v>453.0592449337187</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="M4" t="n">
-        <v>640.5848321000389</v>
+        <v>453.0592449337187</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="M4" t="n">
-        <v>640.5848321000389</v>
+        <v>453.0592449337187</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.048427708612923</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H8" t="n">
-        <v>10.7372102708321</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>40.41950923629976</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388616</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K8" t="n">
-        <v>133.3639361394712</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L8" t="n">
-        <v>165.449755626934</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M8" t="n">
-        <v>184.0947318899791</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N8" t="n">
-        <v>187.0735771170756</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O8" t="n">
-        <v>176.6482740895558</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P8" t="n">
-        <v>150.7652150331742</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.2183977184739</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R8" t="n">
-        <v>65.85829705115658</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>23.89104641001701</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T8" t="n">
-        <v>4.589492294453073</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.560958278245113</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051487</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>19.31369510624622</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J9" t="n">
-        <v>52.99825557753501</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K9" t="n">
-        <v>90.58246021995758</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L9" t="n">
-        <v>121.799296335633</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O9" t="n">
-        <v>133.4662443858011</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P9" t="n">
-        <v>107.1184277115602</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q9" t="n">
-        <v>71.60583214932356</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R9" t="n">
-        <v>34.82862011770975</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S9" t="n">
-        <v>10.4195539840704</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>2.261055516259907</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H10" t="n">
-        <v>4.181292981673455</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I10" t="n">
-        <v>14.14286010570121</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062825</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K10" t="n">
-        <v>54.63898190775737</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>69.91908529886263</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>73.71987206850237</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N10" t="n">
-        <v>71.96697828272931</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707449</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298935</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013718</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R10" t="n">
-        <v>21.14588454739968</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S10" t="n">
-        <v>8.195847286163604</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T10" t="n">
-        <v>2.009414827593581</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H11" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I11" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J11" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L11" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R11" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T11" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H12" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J12" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K12" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M12" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N12" t="n">
-        <v>522.5388116762073</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P12" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R12" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H13" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J13" t="n">
         <v>119.0856174753787</v>
@@ -31925,16 +31925,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L13" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M13" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N13" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O13" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P13" t="n">
         <v>203.7180217169137</v>
@@ -31943,16 +31943,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R13" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S13" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H14" t="n">
         <v>38.45624955336179</v>
@@ -32004,16 +32004,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L14" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N14" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P14" t="n">
         <v>539.9786897190645</v>
@@ -32025,7 +32025,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T14" t="n">
         <v>16.4376645838976</v>
@@ -32074,7 +32074,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J15" t="n">
         <v>189.8178475575841</v>
@@ -32086,16 +32086,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M15" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N15" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O15" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P15" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q15" t="n">
         <v>256.4624964168761</v>
@@ -32153,7 +32153,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J16" t="n">
         <v>119.0856174753787</v>
@@ -32180,7 +32180,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R16" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S16" t="n">
         <v>29.35413767523479</v>
@@ -32189,7 +32189,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32703,43 +32703,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H23" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I23" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J23" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K23" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L23" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M23" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N23" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O23" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P23" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q23" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R23" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S23" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T23" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U23" t="n">
         <v>0.3004027793744847</v>
@@ -32782,10 +32782,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H24" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I24" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J24" t="n">
         <v>189.8178475575841</v>
@@ -32794,7 +32794,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L24" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M24" t="n">
         <v>509.0653662040588</v>
@@ -32803,25 +32803,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O24" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P24" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q24" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R24" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S24" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T24" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32864,7 +32864,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I25" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J25" t="n">
         <v>119.0856174753787</v>
@@ -32879,10 +32879,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N25" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O25" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P25" t="n">
         <v>203.7180217169137</v>
@@ -32894,13 +32894,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S25" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T25" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,43 +32940,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H26" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I26" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J26" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K26" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L26" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M26" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N26" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O26" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P26" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q26" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R26" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S26" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T26" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U26" t="n">
         <v>0.3004027793744847</v>
@@ -33019,10 +33019,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H27" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I27" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J27" t="n">
         <v>189.8178475575841</v>
@@ -33031,7 +33031,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L27" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M27" t="n">
         <v>509.0653662040588</v>
@@ -33040,25 +33040,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O27" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P27" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q27" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R27" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S27" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T27" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33101,7 +33101,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I28" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J28" t="n">
         <v>119.0856174753787</v>
@@ -33116,10 +33116,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N28" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O28" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P28" t="n">
         <v>203.7180217169137</v>
@@ -33131,13 +33131,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S28" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T28" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,43 +33177,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H29" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I29" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J29" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K29" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L29" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M29" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N29" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O29" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P29" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q29" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R29" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S29" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T29" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U29" t="n">
         <v>0.3004027793744847</v>
@@ -33256,10 +33256,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H30" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I30" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J30" t="n">
         <v>189.8178475575841</v>
@@ -33268,7 +33268,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L30" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M30" t="n">
         <v>509.0653662040588</v>
@@ -33277,25 +33277,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O30" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P30" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q30" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R30" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S30" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T30" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33338,7 +33338,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I31" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J31" t="n">
         <v>119.0856174753787</v>
@@ -33353,10 +33353,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N31" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O31" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P31" t="n">
         <v>203.7180217169137</v>
@@ -33368,13 +33368,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S31" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T31" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,43 +33414,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H32" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I32" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J32" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K32" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L32" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M32" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N32" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O32" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P32" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q32" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R32" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S32" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T32" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U32" t="n">
         <v>0.3004027793744847</v>
@@ -33493,10 +33493,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H33" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I33" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J33" t="n">
         <v>189.8178475575841</v>
@@ -33505,7 +33505,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L33" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M33" t="n">
         <v>509.0653662040588</v>
@@ -33514,25 +33514,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O33" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P33" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q33" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R33" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S33" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T33" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33575,7 +33575,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I34" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J34" t="n">
         <v>119.0856174753787</v>
@@ -33590,10 +33590,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N34" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O34" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P34" t="n">
         <v>203.7180217169137</v>
@@ -33605,13 +33605,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S34" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T34" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,43 +33651,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H35" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I35" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J35" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K35" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L35" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M35" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N35" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O35" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P35" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q35" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R35" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S35" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T35" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U35" t="n">
         <v>0.3004027793744847</v>
@@ -33730,10 +33730,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H36" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I36" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J36" t="n">
         <v>189.8178475575841</v>
@@ -33742,7 +33742,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L36" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M36" t="n">
         <v>509.0653662040588</v>
@@ -33751,25 +33751,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O36" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P36" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q36" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R36" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S36" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T36" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33812,7 +33812,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I37" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J37" t="n">
         <v>119.0856174753787</v>
@@ -33827,10 +33827,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N37" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O37" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P37" t="n">
         <v>203.7180217169137</v>
@@ -33842,13 +33842,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S37" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T37" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,43 +33888,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H38" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I38" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J38" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K38" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L38" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M38" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N38" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O38" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P38" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q38" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R38" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S38" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T38" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U38" t="n">
         <v>0.3004027793744847</v>
@@ -33967,10 +33967,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H39" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I39" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J39" t="n">
         <v>189.8178475575841</v>
@@ -33979,7 +33979,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L39" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M39" t="n">
         <v>509.0653662040588</v>
@@ -33988,25 +33988,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O39" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P39" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q39" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R39" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S39" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T39" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34049,7 +34049,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I40" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J40" t="n">
         <v>119.0856174753787</v>
@@ -34064,10 +34064,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N40" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O40" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P40" t="n">
         <v>203.7180217169137</v>
@@ -34079,13 +34079,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S40" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T40" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H41" t="n">
         <v>38.45624955336179</v>
@@ -34137,16 +34137,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L41" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M41" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N41" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O41" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P41" t="n">
         <v>539.9786897190645</v>
@@ -34158,7 +34158,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S41" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T41" t="n">
         <v>16.4376645838976</v>
@@ -34207,7 +34207,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I42" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J42" t="n">
         <v>189.8178475575841</v>
@@ -34219,16 +34219,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M42" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N42" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O42" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P42" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q42" t="n">
         <v>256.4624964168761</v>
@@ -34286,7 +34286,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I43" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J43" t="n">
         <v>119.0856174753787</v>
@@ -34313,7 +34313,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R43" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S43" t="n">
         <v>29.35413767523479</v>
@@ -34322,7 +34322,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H44" t="n">
         <v>38.45624955336179</v>
@@ -34374,16 +34374,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L44" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M44" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N44" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O44" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P44" t="n">
         <v>539.9786897190645</v>
@@ -34395,7 +34395,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S44" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T44" t="n">
         <v>16.4376645838976</v>
@@ -34444,7 +34444,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I45" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J45" t="n">
         <v>189.8178475575841</v>
@@ -34456,16 +34456,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M45" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N45" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O45" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P45" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q45" t="n">
         <v>256.4624964168761</v>
@@ -34523,7 +34523,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I46" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J46" t="n">
         <v>119.0856174753787</v>
@@ -34550,7 +34550,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R46" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S46" t="n">
         <v>29.35413767523479</v>
@@ -34559,7 +34559,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>164.3820236732831</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>28.4584419706827</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K11" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P11" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K12" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L12" t="n">
-        <v>412.0358695391851</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M12" t="n">
-        <v>366.9313322820406</v>
+        <v>535.6747904601056</v>
       </c>
       <c r="N12" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O12" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P12" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R12" t="n">
-        <v>24.58388860977094</v>
+        <v>24.5838886097709</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K13" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L13" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M13" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O13" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P13" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K14" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N14" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P14" t="n">
         <v>308.745693963795</v>
@@ -35670,7 +35670,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R14" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K15" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L15" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M15" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N15" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O15" t="n">
-        <v>380.8714430074314</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P15" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q15" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R15" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K16" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L16" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M16" t="n">
         <v>303.6179906468033</v>
@@ -35819,13 +35819,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O16" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P16" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K18" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L18" t="n">
         <v>297.6803606378502</v>
@@ -35974,7 +35974,7 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N18" t="n">
-        <v>559.9405577709385</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O18" t="n">
         <v>335.424681996123</v>
@@ -35986,7 +35986,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R18" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K21" t="n">
-        <v>355.3309544215493</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L21" t="n">
         <v>297.6803606378502</v>
@@ -36211,7 +36211,7 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N21" t="n">
-        <v>391.1970995928739</v>
+        <v>559.940557770939</v>
       </c>
       <c r="O21" t="n">
         <v>335.424681996123</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K23" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L23" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M23" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N23" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O23" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P23" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q23" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R23" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>93.34947739681176</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K24" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L24" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M24" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N24" t="n">
-        <v>391.1970995928739</v>
+        <v>559.9405577709383</v>
       </c>
       <c r="O24" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P24" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q24" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R24" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K25" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L25" t="n">
         <v>278.0112915831069</v>
@@ -36527,7 +36527,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N25" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O25" t="n">
         <v>262.6644876295069</v>
@@ -36536,7 +36536,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q25" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K26" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L26" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M26" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N26" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O26" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P26" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q26" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R26" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K27" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L27" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M27" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N27" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O27" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P27" t="n">
-        <v>529.7874664804606</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q27" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K28" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L28" t="n">
         <v>278.0112915831069</v>
@@ -36764,7 +36764,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N28" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O28" t="n">
         <v>262.6644876295069</v>
@@ -36773,7 +36773,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q28" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K29" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L29" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M29" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N29" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O29" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P29" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q29" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R29" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K30" t="n">
-        <v>379.9148430313197</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L30" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M30" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N30" t="n">
         <v>391.1970995928739</v>
@@ -36928,10 +36928,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P30" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q30" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K31" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L31" t="n">
         <v>278.0112915831069</v>
@@ -37001,7 +37001,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N31" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O31" t="n">
         <v>262.6644876295069</v>
@@ -37010,7 +37010,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q31" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K32" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L32" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M32" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N32" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O32" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P32" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q32" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R32" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K33" t="n">
-        <v>247.0876593049803</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L33" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M33" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N33" t="n">
         <v>391.1970995928739</v>
@@ -37165,10 +37165,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P33" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q33" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K34" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L34" t="n">
         <v>278.0112915831069</v>
@@ -37238,7 +37238,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N34" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O34" t="n">
         <v>262.6644876295069</v>
@@ -37247,7 +37247,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q34" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K35" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L35" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M35" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N35" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O35" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P35" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q35" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R35" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K36" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L36" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M36" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N36" t="n">
         <v>391.1970995928739</v>
@@ -37402,13 +37402,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P36" t="n">
-        <v>280.048785629427</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q36" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R36" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K37" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L37" t="n">
         <v>278.0112915831069</v>
@@ -37475,7 +37475,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N37" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O37" t="n">
         <v>262.6644876295069</v>
@@ -37484,7 +37484,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q37" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K38" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L38" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M38" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N38" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O38" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P38" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q38" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R38" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K39" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L39" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M39" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N39" t="n">
         <v>391.1970995928739</v>
@@ -37639,10 +37639,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P39" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q39" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K40" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L40" t="n">
         <v>278.0112915831069</v>
@@ -37712,7 +37712,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N40" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O40" t="n">
         <v>262.6644876295069</v>
@@ -37721,7 +37721,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q40" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K41" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L41" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M41" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N41" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O41" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P41" t="n">
         <v>308.745693963795</v>
@@ -37803,7 +37803,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R41" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K42" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L42" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M42" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N42" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O42" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P42" t="n">
-        <v>436.2707275254369</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q42" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K43" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L43" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M43" t="n">
         <v>303.6179906468033</v>
@@ -37952,13 +37952,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O43" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P43" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q43" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K44" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L44" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M44" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N44" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O44" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P44" t="n">
         <v>308.745693963795</v>
@@ -38040,7 +38040,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R44" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K45" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L45" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M45" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N45" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O45" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P45" t="n">
-        <v>249.6795291235323</v>
+        <v>443.0068759113666</v>
       </c>
       <c r="Q45" t="n">
         <v>326.5580100667037</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K46" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L46" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M46" t="n">
         <v>303.6179906468033</v>
@@ -38189,13 +38189,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O46" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P46" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
